--- a/01_環境構築手順書.xlsx
+++ b/01_環境構築手順書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\02_flywest\02_プログラミングスクール\Lesson\01_栗林\01_環境構築関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07827039-C1DD-47D4-9613-CFFB8BC5B5D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C3984F-8836-4DE5-9BBD-9BD0B26362ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12804" yWindow="1764" windowWidth="23484" windowHeight="22896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13068" yWindow="1896" windowWidth="23484" windowHeight="22896" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="3" r:id="rId1"/>
@@ -20,9 +20,8 @@
     <sheet name="SouceTreeからDocumentをpull" sheetId="4" r:id="rId5"/>
     <sheet name="FTP設定" sheetId="2" r:id="rId6"/>
     <sheet name="wordpressログイン手順" sheetId="5" r:id="rId7"/>
-    <sheet name="Sheet4 (5)" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet4 (6)" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet4 (7)" sheetId="11" r:id="rId10"/>
+    <sheet name="ブランチ変更方法" sheetId="9" r:id="rId8"/>
+    <sheet name="テンプレート" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <r>
       <t>XFREE FFFTP</t>
@@ -292,44 +291,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>SouceTreeでブランチを変更</t>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>テーマを修正してftpでアップロード</t>
-    <rPh sb="4" eb="6">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SouceTreeでコミットしてみる</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SouceTreeでpullをする手順</t>
-    <rPh sb="17" eb="19">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SouceTreeでのブランチ切り替え手順</t>
-    <rPh sb="15" eb="16">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>https://ja.atlassian.com/software/sourcetree</t>
   </si>
   <si>
@@ -569,6 +530,32 @@
     <t>と同じようにクローンする</t>
     <rPh sb="1" eb="2">
       <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ブランチ変更方法</t>
+  </si>
+  <si>
+    <t>ブランチ変更方法</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>https://qiita.com/inabe49/items/be38f569040aed7d85b0</t>
+  </si>
+  <si>
+    <t>下記を参照</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -907,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -949,18 +936,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -969,30 +944,39 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2363,11 +2347,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFD10E2-3076-4C93-8AD2-55B2136A816F}">
-  <dimension ref="B4:R48"/>
+  <dimension ref="B4:R45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:R20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="18"/>
   <cols>
@@ -2375,149 +2357,149 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:18">
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="19">
+      <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="15">
+        <v>4</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="15">
+        <v>5</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="15">
+        <v>7</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="19">
-        <v>4</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="19">
-        <v>5</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="19">
-        <v>6</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="19">
-        <v>7</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>36</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -2525,891 +2507,807 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="19">
+      <c r="B11" s="15">
         <v>8</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <v>9</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="19">
+      <c r="B13" s="15">
         <v>10</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="19">
+      <c r="B14" s="15">
         <v>11</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="19">
+      <c r="B15" s="15">
         <v>12</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="19">
+      <c r="B16" s="15">
         <v>13</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="19">
+      <c r="B17" s="15">
         <v>14</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="19">
+      <c r="B18" s="15">
         <v>15</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="19">
+      <c r="B19" s="15">
         <v>16</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="19">
+      <c r="B20" s="15">
         <v>17</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="19">
+      <c r="B21" s="15">
         <v>18</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="19">
+      <c r="B22" s="15">
         <v>19</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="19">
+      <c r="B23" s="15">
         <v>20</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="19">
+      <c r="B24" s="15">
         <v>21</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="19">
+      <c r="B25" s="15">
         <v>22</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="19">
+      <c r="B26" s="15">
         <v>23</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="19">
+      <c r="B27" s="15">
         <v>24</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="19">
+      <c r="B28" s="15">
         <v>25</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="19">
+      <c r="B29" s="15">
         <v>26</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="19">
+      <c r="B30" s="15">
         <v>27</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="19">
+      <c r="B31" s="15">
         <v>28</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="19">
+      <c r="B32" s="15">
         <v>29</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="19">
+      <c r="B33" s="15">
         <v>30</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="19">
+      <c r="B34" s="15">
         <v>31</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
     </row>
     <row r="35" spans="2:18">
-      <c r="B35" s="19">
+      <c r="B35" s="15">
         <v>32</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
     </row>
     <row r="36" spans="2:18">
-      <c r="B36" s="19">
+      <c r="B36" s="15">
         <v>33</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
     </row>
     <row r="37" spans="2:18">
-      <c r="B37" s="19">
+      <c r="B37" s="15">
         <v>34</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
     </row>
     <row r="38" spans="2:18">
-      <c r="B38" s="19">
+      <c r="B38" s="15">
         <v>35</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
     </row>
     <row r="39" spans="2:18">
-      <c r="B39" s="19">
+      <c r="B39" s="15">
         <v>36</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
     </row>
     <row r="40" spans="2:18">
-      <c r="B40" s="19">
+      <c r="B40" s="15">
         <v>37</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
     </row>
     <row r="41" spans="2:18">
-      <c r="B41" s="19">
+      <c r="B41" s="15">
         <v>38</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
     </row>
     <row r="42" spans="2:18">
-      <c r="B42" s="19">
+      <c r="B42" s="15">
         <v>39</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
     </row>
     <row r="43" spans="2:18">
-      <c r="B43" s="19">
+      <c r="B43" s="15">
         <v>40</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-    </row>
-    <row r="44" spans="2:18">
-      <c r="B44" s="19">
-        <v>41</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
     </row>
     <row r="45" spans="2:18">
-      <c r="B45" s="19">
-        <v>42</v>
-      </c>
       <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-    </row>
-    <row r="46" spans="2:18">
-      <c r="B46" s="19">
-        <v>43</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-    </row>
-    <row r="48" spans="2:18">
-      <c r="C48" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="K43:R43"/>
-    <mergeCell ref="K44:R44"/>
-    <mergeCell ref="K45:R45"/>
-    <mergeCell ref="K46:R46"/>
-    <mergeCell ref="C6:J6"/>
+  <mergeCells count="80">
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C23:J23"/>
     <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="K6:R6"/>
     <mergeCell ref="K9:R9"/>
-    <mergeCell ref="K37:R37"/>
-    <mergeCell ref="K38:R38"/>
-    <mergeCell ref="K39:R39"/>
-    <mergeCell ref="K40:R40"/>
-    <mergeCell ref="K41:R41"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="K31:R31"/>
-    <mergeCell ref="K32:R32"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="K22:R22"/>
     <mergeCell ref="K35:R35"/>
-    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="K24:R24"/>
     <mergeCell ref="K25:R25"/>
     <mergeCell ref="K26:R26"/>
     <mergeCell ref="K27:R27"/>
     <mergeCell ref="K28:R28"/>
     <mergeCell ref="K29:R29"/>
     <mergeCell ref="K30:R30"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K31:R31"/>
+    <mergeCell ref="K32:R32"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="K43:R43"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:R7"/>
     <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="K37:R37"/>
+    <mergeCell ref="K38:R38"/>
+    <mergeCell ref="K39:R39"/>
+    <mergeCell ref="K40:R40"/>
+    <mergeCell ref="K41:R41"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
+  <hyperlinks>
+    <hyperlink ref="C4:J4" location="github登録!A1" display="Github登録" xr:uid="{6D4CD79F-BF9D-446E-B3B8-A9EF712881A1}"/>
+    <hyperlink ref="C5:J5" location="SouceTreeインストール!A1" display="SouceTreeインストール" xr:uid="{0A0F0D88-DA98-4796-8268-0C9980621301}"/>
+    <hyperlink ref="C6:J6" location="SouceTreeからテーマをpull!A1" display="SouceTreeからテーマをpull &amp; push" xr:uid="{7CFEA319-9C16-46EE-9FDE-072233B6E08C}"/>
+    <hyperlink ref="C7:J7" location="SouceTreeからDocumentをpull!A1" display="SouceTreeからDocumentをpull" xr:uid="{0F6C719D-40A9-477E-A53A-8CBD91F1ECFF}"/>
+    <hyperlink ref="C8:J8" location="FTP設定!A1" display="FileZillaを使ってftp接続を実施" xr:uid="{376AF6A6-C649-4564-91D2-7962F82CD54F}"/>
+    <hyperlink ref="C9:J9" location="wordpressログイン手順!A1" display="wordpressログイン手順" xr:uid="{E7DE0F8B-2225-449F-9897-3C33DD05F356}"/>
+    <hyperlink ref="C10:J10" location="ブランチ変更方法!A1" display="ブランチ変更方法" xr:uid="{CC00447F-75B2-4F4B-B339-39A8CD8B038B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF8E9EF-376F-4AF8-9129-F8B0A00D07DA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
-  <cols>
-    <col min="1" max="1" width="3.59765625" style="20"/>
-    <col min="2" max="16384" width="3.59765625" style="14"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3421,33 +3319,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="20"/>
+    <col min="1" max="1" width="3.59765625" style="16"/>
     <col min="2" max="16384" width="3.59765625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
-        <v>51</v>
+      <c r="A2" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="30" t="s">
-        <v>53</v>
+      <c r="B5" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="30" t="s">
-        <v>50</v>
+      <c r="B9" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3468,46 +3366,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="20"/>
+    <col min="1" max="1" width="3.59765625" style="16"/>
     <col min="2" max="16384" width="3.59765625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="30" t="s">
-        <v>48</v>
+      <c r="B5" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="30" t="s">
-        <v>55</v>
+      <c r="B8" s="21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="30"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="32" spans="31:31">
       <c r="AE32" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="32:32">
       <c r="AF39" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3531,83 +3429,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="20"/>
+    <col min="1" max="1" width="3.59765625" style="16"/>
     <col min="2" max="2" width="3.59765625" style="14"/>
     <col min="3" max="3" width="9.19921875" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="3.59765625" style="14"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="21" t="s">
-        <v>61</v>
+      <c r="C27" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="21"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="31" t="s">
-        <v>62</v>
+      <c r="C29" s="22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="31" t="s">
-        <v>63</v>
+      <c r="C30" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="20" t="s">
-        <v>64</v>
+      <c r="A54" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="C56" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="32" t="s">
-        <v>66</v>
+      <c r="C88" s="23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="3:3">
       <c r="C135" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="162" spans="3:3">
       <c r="C162" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="3:3">
       <c r="C186" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="20" t="s">
-        <v>72</v>
+      <c r="A219" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3624,37 +3522,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E80BA3-22CC-4C64-B0E1-5598E0933F82}">
   <dimension ref="A2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="20"/>
+    <col min="1" max="1" width="3.59765625" style="16"/>
     <col min="2" max="16384" width="3.59765625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="21" t="s">
-        <v>73</v>
+      <c r="B5" s="17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="17" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3676,12 +3574,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.8984375" defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="20"/>
+    <col min="1" max="1" width="3.8984375" style="16"/>
     <col min="2" max="16384" width="3.8984375" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3808,38 +3706,38 @@
       <c r="O21" s="12"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="20" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3867,12 +3765,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="20"/>
+    <col min="1" max="1" width="3.8984375" style="16"/>
     <col min="2" max="16384" width="3.59765625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3882,29 +3780,29 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.8" thickBot="1">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="22" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.8" thickBot="1">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="22" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3934,30 +3832,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D0492-037E-4369-A3B3-A68BA16C1CEF}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
+  <cols>
+    <col min="1" max="1" width="3.59765625" style="16"/>
+    <col min="2" max="16384" width="3.59765625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{14373403-5A63-4C75-8F7E-6B2819E8D74B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF8E9EF-376F-4AF8-9129-F8B0A00D07DA}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="20"/>
-    <col min="2" max="16384" width="3.59765625" style="14"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75BB46A-E0AA-41F1-BC36-140BE3DAA2CF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
-  <cols>
-    <col min="1" max="1" width="3.59765625" style="20"/>
+    <col min="1" max="1" width="3.59765625" style="16"/>
     <col min="2" max="16384" width="3.59765625" style="14"/>
   </cols>
   <sheetData/>

--- a/01_環境構築手順書.xlsx
+++ b/01_環境構築手順書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\02_flywest\02_プログラミングスクール\Lesson\01_栗林\01_環境構築関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C3984F-8836-4DE5-9BBD-9BD0B26362ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B1C0B7-B11B-44F6-8E8E-B97570303635}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13068" yWindow="1896" windowWidth="23484" windowHeight="22896" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <r>
       <t>XFREE FFFTP</t>
@@ -558,6 +558,36 @@
       <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>管理者用パスワード</t>
+    <rPh sb="0" eb="4">
+      <t>カンリシャヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>kurikenta</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Pas</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>kurikun92kenta</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Mail</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>kurikenta92@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -691,7 +721,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,6 +749,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF666666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -953,18 +989,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -977,6 +1001,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2046,9 +2083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>217883</xdr:colOff>
+      <xdr:colOff>190989</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>175813</xdr:rowOff>
+      <xdr:rowOff>175814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2360,890 +2397,896 @@
       <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="15">
         <v>5</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="15">
         <v>6</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="15">
         <v>7</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="15">
         <v>8</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="15">
         <v>9</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="15">
         <v>10</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="15">
         <v>11</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="15">
         <v>12</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="15">
         <v>13</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="15">
         <v>14</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="15">
         <v>15</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="15">
         <v>16</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="15">
         <v>17</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="15">
         <v>18</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="15">
         <v>19</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="15">
         <v>20</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="15">
         <v>21</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="15">
         <v>22</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="15">
         <v>23</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="15">
         <v>24</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="15">
         <v>25</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="15">
         <v>26</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="15">
         <v>27</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="15">
         <v>28</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="15">
         <v>29</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
     </row>
     <row r="33" spans="2:18">
       <c r="B33" s="15">
         <v>30</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
     </row>
     <row r="34" spans="2:18">
       <c r="B34" s="15">
         <v>31</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
     </row>
     <row r="35" spans="2:18">
       <c r="B35" s="15">
         <v>32</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
     </row>
     <row r="36" spans="2:18">
       <c r="B36" s="15">
         <v>33</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="15">
         <v>34</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
     </row>
     <row r="38" spans="2:18">
       <c r="B38" s="15">
         <v>35</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
     </row>
     <row r="39" spans="2:18">
       <c r="B39" s="15">
         <v>36</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
     </row>
     <row r="40" spans="2:18">
       <c r="B40" s="15">
         <v>37</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
     </row>
     <row r="41" spans="2:18">
       <c r="B41" s="15">
         <v>38</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
     </row>
     <row r="42" spans="2:18">
       <c r="B42" s="15">
         <v>39</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
     </row>
     <row r="43" spans="2:18">
       <c r="B43" s="15">
         <v>40</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
     </row>
     <row r="45" spans="2:18">
       <c r="C45" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="K43:R43"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="K37:R37"/>
+    <mergeCell ref="K38:R38"/>
+    <mergeCell ref="K39:R39"/>
+    <mergeCell ref="K40:R40"/>
+    <mergeCell ref="K41:R41"/>
+    <mergeCell ref="K35:R35"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="K30:R30"/>
+    <mergeCell ref="K31:R31"/>
+    <mergeCell ref="K32:R32"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="K17:R17"/>
     <mergeCell ref="C42:J42"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="K4:R4"/>
@@ -3260,41 +3303,35 @@
     <mergeCell ref="C41:J41"/>
     <mergeCell ref="K23:R23"/>
     <mergeCell ref="K12:R12"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K35:R35"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="K29:R29"/>
-    <mergeCell ref="K30:R30"/>
-    <mergeCell ref="K31:R31"/>
-    <mergeCell ref="K32:R32"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="K34:R34"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="K43:R43"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="K37:R37"/>
-    <mergeCell ref="K38:R38"/>
-    <mergeCell ref="K39:R39"/>
-    <mergeCell ref="K40:R40"/>
-    <mergeCell ref="K41:R41"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C5:J5"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -3570,7 +3607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F42054-04C7-4A5C-8985-3FEAFCE6F258}">
   <dimension ref="A2:O94"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.8984375" defaultRowHeight="22.2"/>
   <cols>
@@ -3759,74 +3798,105 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24357B6-A2AB-4E0B-B480-6C431992CEFE}">
-  <dimension ref="A2:F35"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
   <cols>
     <col min="1" max="1" width="3.8984375" style="16"/>
-    <col min="2" max="16384" width="3.59765625" style="14"/>
+    <col min="2" max="2" width="4" style="14" customWidth="1"/>
+    <col min="3" max="16384" width="3.59765625" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:3">
       <c r="B4" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:3">
       <c r="B5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="22.8" thickBot="1">
-      <c r="B7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="22.8" thickBot="1">
-      <c r="B8" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
+    <row r="7" spans="1:3">
+      <c r="B7" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="B34" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:6">
       <c r="B35" s="14" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="22.8" thickBot="1">
+      <c r="B39" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="22.8" thickBot="1">
+      <c r="B40" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{53CAF176-11D1-4950-AE24-32CB2A679C83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/01_環境構築手順書.xlsx
+++ b/01_環境構築手順書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\02_flywest\02_プログラミングスクール\Lesson\01_栗林\01_環境構築関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B1C0B7-B11B-44F6-8E8E-B97570303635}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218F3969-3CF8-4390-A0D8-4B5F2F9D938A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13068" yWindow="1896" windowWidth="23484" windowHeight="22896" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13416" yWindow="2244" windowWidth="23484" windowHeight="22896" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="FTP設定" sheetId="2" r:id="rId6"/>
     <sheet name="wordpressログイン手順" sheetId="5" r:id="rId7"/>
     <sheet name="ブランチ変更方法" sheetId="9" r:id="rId8"/>
-    <sheet name="テンプレート" sheetId="11" r:id="rId9"/>
+    <sheet name="phpmyadminログイン手順" sheetId="12" r:id="rId9"/>
+    <sheet name="テンプレート" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <r>
       <t>XFREE FFFTP</t>
@@ -588,6 +589,65 @@
   </si>
   <si>
     <t>kurikenta92@gmail.com</t>
+  </si>
+  <si>
+    <t>phpmyadminログイン手順</t>
+    <rPh sb="14" eb="16">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>https://www.xfree.ne.jp/manual/man_blog_phpmyadmin.php</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>phpmyadminログイン手順</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>※参考URL</t>
+    <rPh sb="1" eb="3">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>https://www.xfree.ne.jp/login/member.php</t>
+  </si>
+  <si>
+    <t>下記URLにてログイン</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>管理パネルログイン押下</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>設定押下</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>phpmyadminログイン押下</t>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -989,7 +1049,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,19 +1068,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2121,6 +2181,187 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>111567</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>253565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253BED73-BA29-4D74-A573-6A3670C42A6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="277906" y="2034988"/>
+          <a:ext cx="9838273" cy="8779001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>200532</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>43565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA87317-3997-40ED-A13A-13F73C5E0ED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="277906" y="12227859"/>
+          <a:ext cx="7148179" cy="6157494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>1315</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>207161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10F633A-45BA-4F8F-ADE0-7381437D5EBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="277906" y="19453412"/>
+          <a:ext cx="10005927" cy="6043184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>269105</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>122517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33D57E4-FD90-432C-B535-71369557D9FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="430306" y="26687930"/>
+          <a:ext cx="7064352" cy="12063505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2397,861 +2638,927 @@
       <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="15">
         <v>5</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="15">
         <v>6</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="15">
         <v>7</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="15">
         <v>8</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
+      <c r="C11" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="15">
         <v>9</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="15">
         <v>10</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="15">
         <v>11</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="15">
         <v>12</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="15">
         <v>13</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="15">
         <v>14</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="15">
         <v>15</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="15">
         <v>16</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="15">
         <v>17</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="15">
         <v>18</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="15">
         <v>19</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="15">
         <v>20</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="15">
         <v>21</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="15">
         <v>22</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="15">
         <v>23</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="15">
         <v>24</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="15">
         <v>25</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="15">
         <v>26</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="15">
         <v>27</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="15">
         <v>28</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="15">
         <v>29</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
     </row>
     <row r="33" spans="2:18">
       <c r="B33" s="15">
         <v>30</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
     </row>
     <row r="34" spans="2:18">
       <c r="B34" s="15">
         <v>31</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
     </row>
     <row r="35" spans="2:18">
       <c r="B35" s="15">
         <v>32</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
     </row>
     <row r="36" spans="2:18">
       <c r="B36" s="15">
         <v>33</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="15">
         <v>34</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
     </row>
     <row r="38" spans="2:18">
       <c r="B38" s="15">
         <v>35</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
     </row>
     <row r="39" spans="2:18">
       <c r="B39" s="15">
         <v>36</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
     </row>
     <row r="40" spans="2:18">
       <c r="B40" s="15">
         <v>37</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
     </row>
     <row r="41" spans="2:18">
       <c r="B41" s="15">
         <v>38</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
     </row>
     <row r="42" spans="2:18">
       <c r="B42" s="15">
         <v>39</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
     </row>
     <row r="43" spans="2:18">
       <c r="B43" s="15">
         <v>40</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
     </row>
     <row r="45" spans="2:18">
       <c r="C45" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="K31:R31"/>
+    <mergeCell ref="K32:R32"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="K30:R30"/>
     <mergeCell ref="K42:R42"/>
     <mergeCell ref="K43:R43"/>
     <mergeCell ref="C6:J6"/>
@@ -3268,70 +3575,6 @@
     <mergeCell ref="K35:R35"/>
     <mergeCell ref="K24:R24"/>
     <mergeCell ref="K25:R25"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="K29:R29"/>
-    <mergeCell ref="K30:R30"/>
-    <mergeCell ref="K31:R31"/>
-    <mergeCell ref="K32:R32"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="K34:R34"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C5:J5"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -3342,9 +3585,27 @@
     <hyperlink ref="C8:J8" location="FTP設定!A1" display="FileZillaを使ってftp接続を実施" xr:uid="{376AF6A6-C649-4564-91D2-7962F82CD54F}"/>
     <hyperlink ref="C9:J9" location="wordpressログイン手順!A1" display="wordpressログイン手順" xr:uid="{E7DE0F8B-2225-449F-9897-3C33DD05F356}"/>
     <hyperlink ref="C10:J10" location="ブランチ変更方法!A1" display="ブランチ変更方法" xr:uid="{CC00447F-75B2-4F4B-B339-39A8CD8B038B}"/>
+    <hyperlink ref="C11:J11" location="phpmyadminログイン手順!A1" display="phpmyadminログイン手順" xr:uid="{0224EF5F-BACE-4A1C-99DC-1BAA44853124}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF8E9EF-376F-4AF8-9129-F8B0A00D07DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
+  <cols>
+    <col min="1" max="1" width="3.59765625" style="16"/>
+    <col min="2" max="16384" width="3.59765625" style="14"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3460,9 +3721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA776379-99FA-4FC7-9F53-A0AF10C6562A}">
   <dimension ref="A3:C219"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
   <cols>
@@ -3559,9 +3818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E80BA3-22CC-4C64-B0E1-5598E0933F82}">
   <dimension ref="A2:I7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
   <cols>
@@ -3607,9 +3864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F42054-04C7-4A5C-8985-3FEAFCE6F258}">
   <dimension ref="A2:O94"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.8984375" defaultRowHeight="22.2"/>
   <cols>
@@ -3825,7 +4080,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -3833,7 +4088,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -3841,7 +4096,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="24" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -3864,23 +4119,23 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="22.8" thickBot="1">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="22.8" thickBot="1">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="18" t="s">
         <v>31</v>
       </c>
@@ -3904,9 +4159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D0492-037E-4369-A3B3-A68BA16C1CEF}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
   <cols>
@@ -3939,8 +4192,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF8E9EF-376F-4AF8-9129-F8B0A00D07DA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E6DA3B-7878-48A5-9FE2-2D41D61D00AD}">
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -3949,8 +4202,54 @@
     <col min="1" max="1" width="3.59765625" style="16"/>
     <col min="2" max="16384" width="3.59765625" style="14"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="6"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{4E66E8F0-2E65-4C15-97AE-0FB2F5943BA3}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{C30E2FCD-DC62-4FBE-B1E5-5ED333AA8C52}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/01_環境構築手順書.xlsx
+++ b/01_環境構築手順書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\02_flywest\02_プログラミングスクール\Lesson\01_栗林\01_環境構築関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218F3969-3CF8-4390-A0D8-4B5F2F9D938A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF55D6A-5702-4E9F-8D50-38BFFE2FF483}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13416" yWindow="2244" windowWidth="23484" windowHeight="22896" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <r>
       <t>XFREE FFFTP</t>
@@ -649,12 +649,31 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>※Wordpress_Lessonをする時はLesson毎にブランチを切って必ずコミットする事</t>
+    <rPh sb="20" eb="21">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,6 +797,15 @@
       <sz val="11"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -990,7 +1018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1050,13 +1078,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,12 +1090,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2638,892 +2667,898 @@
       <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="15">
         <v>5</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="15">
         <v>6</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="15">
         <v>7</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="15">
         <v>8</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="15">
         <v>9</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="15">
         <v>10</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="15">
         <v>11</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="15">
         <v>12</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="15">
         <v>13</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="15">
         <v>14</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="15">
         <v>15</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="15">
         <v>16</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="15">
         <v>17</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="15">
         <v>18</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="15">
         <v>19</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="15">
         <v>20</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="15">
         <v>21</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="15">
         <v>22</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="15">
         <v>23</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="15">
         <v>24</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="15">
         <v>25</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="15">
         <v>26</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="15">
         <v>27</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="15">
         <v>28</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="15">
         <v>29</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
     </row>
     <row r="33" spans="2:18">
       <c r="B33" s="15">
         <v>30</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
     </row>
     <row r="34" spans="2:18">
       <c r="B34" s="15">
         <v>31</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
     </row>
     <row r="35" spans="2:18">
       <c r="B35" s="15">
         <v>32</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
     </row>
     <row r="36" spans="2:18">
       <c r="B36" s="15">
         <v>33</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="15">
         <v>34</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
     </row>
     <row r="38" spans="2:18">
       <c r="B38" s="15">
         <v>35</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
     </row>
     <row r="39" spans="2:18">
       <c r="B39" s="15">
         <v>36</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
     </row>
     <row r="40" spans="2:18">
       <c r="B40" s="15">
         <v>37</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
     </row>
     <row r="41" spans="2:18">
       <c r="B41" s="15">
         <v>38</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
     </row>
     <row r="42" spans="2:18">
       <c r="B42" s="15">
         <v>39</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
     </row>
     <row r="43" spans="2:18">
       <c r="B43" s="15">
         <v>40</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
     </row>
     <row r="45" spans="2:18">
       <c r="C45" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="K43:R43"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="K37:R37"/>
+    <mergeCell ref="K38:R38"/>
+    <mergeCell ref="K39:R39"/>
+    <mergeCell ref="K40:R40"/>
+    <mergeCell ref="K41:R41"/>
+    <mergeCell ref="K35:R35"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="K31:R31"/>
+    <mergeCell ref="K32:R32"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="K30:R30"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="K17:R17"/>
     <mergeCell ref="C42:J42"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="K4:R4"/>
@@ -3540,41 +3575,35 @@
     <mergeCell ref="C41:J41"/>
     <mergeCell ref="K23:R23"/>
     <mergeCell ref="K12:R12"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="K31:R31"/>
-    <mergeCell ref="K32:R32"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="K34:R34"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="K29:R29"/>
-    <mergeCell ref="K30:R30"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="K43:R43"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="K37:R37"/>
-    <mergeCell ref="K38:R38"/>
-    <mergeCell ref="K39:R39"/>
-    <mergeCell ref="K40:R40"/>
-    <mergeCell ref="K41:R41"/>
-    <mergeCell ref="K35:R35"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C5:J5"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -4055,7 +4084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24357B6-A2AB-4E0B-B480-6C431992CEFE}">
   <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
   <cols>
@@ -4157,7 +4188,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D0492-037E-4369-A3B3-A68BA16C1CEF}">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -4180,6 +4211,11 @@
     <row r="4" spans="1:2">
       <c r="B4" s="21" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="33" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/01_環境構築手順書.xlsx
+++ b/01_環境構築手順書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\02_flywest\02_プログラミングスクール\Lesson\01_栗林\01_環境構築関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soshi_yossy/Desktop/プログラミングスクール_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF55D6A-5702-4E9F-8D50-38BFFE2FF483}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826B35DD-7E8F-9D47-AF0B-1738EF74EA2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="3" r:id="rId1"/>
@@ -24,16 +24,10 @@
     <sheet name="phpmyadminログイン手順" sheetId="12" r:id="rId9"/>
     <sheet name="テンプレート" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1078,6 +1072,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1102,7 +1097,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2656,868 +2650,870 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFD10E2-3076-4C93-8AD2-55B2136A816F}">
   <dimension ref="B4:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:R18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="4.19921875" style="14"/>
+    <col min="1" max="16384" width="4.1640625" style="14"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:18">
       <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="15">
         <v>5</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="15">
         <v>6</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="15">
         <v>7</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="15">
         <v>8</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="15">
         <v>9</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="15">
         <v>10</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="15">
         <v>11</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="15">
         <v>12</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="15">
         <v>13</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="15">
         <v>14</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="15">
         <v>15</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="15">
         <v>16</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="15">
         <v>17</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="15">
         <v>18</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="15">
         <v>19</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="15">
         <v>20</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="15">
         <v>21</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="15">
         <v>22</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="15">
         <v>23</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="15">
         <v>24</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="15">
         <v>25</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="15">
         <v>26</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="15">
         <v>27</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="15">
         <v>28</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="15">
         <v>29</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
     </row>
     <row r="33" spans="2:18">
       <c r="B33" s="15">
         <v>30</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
     </row>
     <row r="34" spans="2:18">
       <c r="B34" s="15">
         <v>31</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
     </row>
     <row r="35" spans="2:18">
       <c r="B35" s="15">
         <v>32</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
     </row>
     <row r="36" spans="2:18">
       <c r="B36" s="15">
         <v>33</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="15">
         <v>34</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
     </row>
     <row r="38" spans="2:18">
       <c r="B38" s="15">
         <v>35</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
     </row>
     <row r="39" spans="2:18">
       <c r="B39" s="15">
         <v>36</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
     </row>
     <row r="40" spans="2:18">
       <c r="B40" s="15">
         <v>37</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
     </row>
     <row r="41" spans="2:18">
       <c r="B41" s="15">
         <v>38</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
     </row>
     <row r="42" spans="2:18">
       <c r="B42" s="15">
         <v>39</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
     </row>
     <row r="43" spans="2:18">
       <c r="B43" s="15">
         <v>40</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
     </row>
     <row r="45" spans="2:18">
       <c r="C45" s="17"/>
@@ -3627,10 +3623,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="16"/>
-    <col min="2" max="16384" width="3.59765625" style="14"/>
+    <col min="1" max="1" width="3.6640625" style="16"/>
+    <col min="2" max="16384" width="3.6640625" style="14"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="6"/>
@@ -3644,10 +3640,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="16"/>
-    <col min="2" max="16384" width="3.59765625" style="14"/>
+    <col min="1" max="1" width="3.6640625" style="16"/>
+    <col min="2" max="16384" width="3.6640625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -3691,10 +3687,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="16"/>
-    <col min="2" max="16384" width="3.59765625" style="14"/>
+    <col min="1" max="1" width="3.6640625" style="16"/>
+    <col min="2" max="16384" width="3.6640625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -3752,12 +3748,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="16"/>
-    <col min="2" max="2" width="3.59765625" style="14"/>
-    <col min="3" max="3" width="9.19921875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.59765625" style="14"/>
+    <col min="1" max="1" width="3.6640625" style="16"/>
+    <col min="2" max="2" width="3.6640625" style="14"/>
+    <col min="3" max="3" width="9.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.6640625" style="14"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -3849,10 +3845,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="16"/>
-    <col min="2" max="16384" width="3.59765625" style="14"/>
+    <col min="1" max="1" width="3.6640625" style="16"/>
+    <col min="2" max="16384" width="3.6640625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
@@ -3895,10 +3891,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.8984375" defaultRowHeight="22.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="16"/>
-    <col min="2" max="16384" width="3.8984375" style="2"/>
+    <col min="1" max="1" width="3.83203125" style="16"/>
+    <col min="2" max="16384" width="3.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
@@ -4088,11 +4084,11 @@
       <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="16"/>
+    <col min="1" max="1" width="3.83203125" style="16"/>
     <col min="2" max="2" width="4" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="3.59765625" style="14"/>
+    <col min="3" max="16384" width="3.6640625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -4149,24 +4145,24 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="22.8" thickBot="1">
-      <c r="B39" s="31" t="s">
+    <row r="39" spans="1:6" ht="25" thickBot="1">
+      <c r="B39" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="22.8" thickBot="1">
-      <c r="B40" s="31" t="s">
+    <row r="40" spans="1:6" ht="25" thickBot="1">
+      <c r="B40" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="18" t="s">
         <v>31</v>
       </c>
@@ -4192,10 +4188,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="16"/>
-    <col min="2" max="16384" width="3.59765625" style="14"/>
+    <col min="1" max="1" width="3.6640625" style="16"/>
+    <col min="2" max="16384" width="3.6640625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -4214,7 +4210,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="25" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4233,10 +4229,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="22.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="16"/>
-    <col min="2" max="16384" width="3.59765625" style="14"/>
+    <col min="1" max="1" width="3.6640625" style="16"/>
+    <col min="2" max="16384" width="3.6640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
